--- a/assets/reference.xlsx
+++ b/assets/reference.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyet\Downloads\Projects\WebScraper\Web-Scraper-Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4CACDF9-7AF2-4FC8-858C-50964548F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A0BD4F-3939-4C51-A8A1-106E80714D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5A10C21C-A2D9-4E42-ACF2-7A1FFA637B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{5A10C21C-A2D9-4E42-ACF2-7A1FFA637B8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="30">
   <si>
     <t>SQL</t>
   </si>
@@ -71,10 +78,61 @@
     <t>Indeed</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of SQL</t>
+  </si>
+  <si>
+    <t>Sum of Excel</t>
+  </si>
+  <si>
+    <t>Sum of Python</t>
+  </si>
+  <si>
+    <t>Sum of Tableau</t>
+  </si>
+  <si>
+    <t>Sum of R</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>HandShake</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Count</t>
   </si>
 </sst>
 </file>
@@ -110,8 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,17 +192,747 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vinh Van" refreshedDate="45818.607666666663" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{EEFBA625-F71C-4760-A0CE-DC268C74DCF9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Website" numFmtId="0">
+      <sharedItems count="3">
+        <s v="LinkedIn"/>
+        <s v="Handshake"/>
+        <s v="Indeed"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Role" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Analyst"/>
+        <s v="Scientist"/>
+        <s v="Engineer"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SQL" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="43" count="9">
+        <n v="27"/>
+        <n v="11"/>
+        <n v="43"/>
+        <n v="13"/>
+        <n v="16"/>
+        <n v="35"/>
+        <n v="6"/>
+        <n v="14"/>
+        <n v="33"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Excel" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="46" count="7">
+        <n v="46"/>
+        <n v="13"/>
+        <n v="24"/>
+        <n v="30"/>
+        <n v="12"/>
+        <n v="15"/>
+        <n v="14"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Python" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="28" count="8">
+        <n v="3"/>
+        <n v="28"/>
+        <n v="12"/>
+        <n v="8"/>
+        <n v="17"/>
+        <n v="24"/>
+        <n v="1"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tableau" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="11" count="6">
+        <n v="6"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="R" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15" count="7">
+        <n v="0"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="15"/>
+        <n v="7"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vinh Van" refreshedDate="45826.615507291666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{D9F11047-DFFD-4511-88FE-A050A68E5B0A}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table3"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Website" numFmtId="0">
+      <sharedItems count="3">
+        <s v="LinkedIn"/>
+        <s v="HandShake"/>
+        <s v="Indeed"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Role" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Data Analyst"/>
+        <s v="Data Scientist"/>
+        <s v="Data Engineer"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Software" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Excel"/>
+        <s v="SQL"/>
+        <s v="Python"/>
+        <s v="Tableau"/>
+        <s v="R"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="46"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{29AC28D6-5AF4-4DE7-85C2-C608A924583C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Sum of SQL" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Excel" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Python" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Tableau" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of R" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49DFCC8C-5B9F-4400-9096-08B087F9B4F2}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Count" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E55D3E43-292E-4B63-A7CF-FDDF9D97ECBA}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E55D3E43-292E-4B63-A7CF-FDDF9D97ECBA}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowCount="1">
   <autoFilter ref="A1:G10" xr:uid="{E55D3E43-292E-4B63-A7CF-FDDF9D97ECBA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2B5EBC24-CF0D-4A2B-8422-24E9B07252A7}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{B139F597-7899-4890-9974-5943911DFC0C}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{8E37232E-8216-4F09-A3EB-FA2859E30908}" name="SQL"/>
-    <tableColumn id="4" xr3:uid="{DA39C863-C110-477A-B754-1DFEFFAD58BD}" name="Excel"/>
-    <tableColumn id="5" xr3:uid="{130979F5-63A5-430E-8D0F-5538A1E00C9E}" name="Python"/>
-    <tableColumn id="6" xr3:uid="{670865F5-D06F-4CA7-96D9-51C6FC63B369}" name="Tableau"/>
-    <tableColumn id="7" xr3:uid="{D6B13979-467B-49F3-840F-B4384FE0E09D}" name="R"/>
+    <tableColumn id="1" xr3:uid="{2B5EBC24-CF0D-4A2B-8422-24E9B07252A7}" name="Website" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{B139F597-7899-4890-9974-5943911DFC0C}" name="Role"/>
+    <tableColumn id="3" xr3:uid="{8E37232E-8216-4F09-A3EB-FA2859E30908}" name="SQL" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{DA39C863-C110-477A-B754-1DFEFFAD58BD}" name="Excel" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{130979F5-63A5-430E-8D0F-5538A1E00C9E}" name="Python" totalsRowFunction="sum"/>
+    <tableColumn id="6" xr3:uid="{670865F5-D06F-4CA7-96D9-51C6FC63B369}" name="Tableau" totalsRowFunction="sum"/>
+    <tableColumn id="7" xr3:uid="{D6B13979-467B-49F3-840F-B4384FE0E09D}" name="R" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5771A193-08DC-43AE-B8E7-54AE75F2BFA8}" name="Table3" displayName="Table3" ref="A1:D46" totalsRowShown="0">
+  <autoFilter ref="A1:D46" xr:uid="{5771A193-08DC-43AE-B8E7-54AE75F2BFA8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{35A47E2F-9C09-4D90-A698-A20ADABFDAB1}" name="Website"/>
+    <tableColumn id="2" xr3:uid="{EAA29F60-C247-4B69-AF7A-C8A6C7272327}" name="Role"/>
+    <tableColumn id="3" xr3:uid="{C098C2B3-6F27-462E-9DDB-29CA5725CFE6}" name="Software"/>
+    <tableColumn id="4" xr3:uid="{2610B05A-AD01-41C2-97DA-C20E589C69F5}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,11 +1254,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A664967F-E807-4265-BC0A-E454DF0AC62E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>198</v>
+      </c>
+      <c r="C7">
+        <v>179</v>
+      </c>
+      <c r="D7">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C84BABF-B66A-4346-86C8-B5F38EEB0ECD}">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>179</v>
+      </c>
+      <c r="C8" s="3">
+        <v>111</v>
+      </c>
+      <c r="D8" s="3">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3">
+        <v>198</v>
+      </c>
+      <c r="F8" s="3">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709C4A3C-4465-41BD-BF11-5605813DFF47}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +1626,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -542,6 +1649,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -585,6 +1695,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -605,6 +1718,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -648,6 +1764,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -668,6 +1787,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -684,6 +1806,698 @@
         <v>1</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f>SUBTOTAL(109,Table1[SQL])</f>
+        <v>198</v>
+      </c>
+      <c r="D11">
+        <f>SUBTOTAL(109,Table1[Excel])</f>
+        <v>179</v>
+      </c>
+      <c r="E11">
+        <f>SUBTOTAL(109,Table1[Python])</f>
+        <v>111</v>
+      </c>
+      <c r="F11">
+        <f>SUBTOTAL(109,Table1[Tableau])</f>
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <f>SUBTOTAL(109,Table1[R])</f>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A56DE0-D067-4007-9D82-A89599449E83}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
     </row>
